--- a/Income/DLR_inc.xlsx
+++ b/Income/DLR_inc.xlsx
@@ -1775,10 +1775,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.6545</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.6117</v>
@@ -1904,10 +1902,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.1559</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.1427</v>
@@ -2033,10 +2029,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.136</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.1027</v>
@@ -2162,10 +2156,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1039</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.0676</v>
@@ -2291,10 +2283,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.5815</v>
@@ -3311,10 +3301,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.5198</v>
@@ -3440,10 +3428,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.4369</v>
